--- a/ZTR引脚定义.xlsx
+++ b/ZTR引脚定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
   <si>
     <t>引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +228,6 @@
   </si>
   <si>
     <t>INPUT1         ？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeIN  充电器充电检测引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -657,6 +653,199 @@
   </si>
   <si>
     <t>从程序存储其中flashAddr开始的地址处写入64字节数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltc6803_3.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或初始值为0x41，计算一字节数据的CRC值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t Ltc6803_ByteCrc8Cal(uint8_t crcByte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Ltc6803_Init(void)</t>
+  </si>
+  <si>
+    <t>Ltc6803的初始化，设置管理芯片参数</t>
+  </si>
+  <si>
+    <t>uint8_t Ltc6803_BlockCrc8Cal(uint8_t *CrcByte, uint8_t len)</t>
+  </si>
+  <si>
+    <t>计算长度为len字节的CRC码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Ltc6803_WriteCfgRegGroup(Ltc6803_Parameter *Dev)</t>
+  </si>
+  <si>
+    <t>uint8_t Ltc6803_ReadCfgRegGroup(uint8_t *CfgData)</t>
+  </si>
+  <si>
+    <t>读取配置寄存器组数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写Ltc6803的配置寄存器组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Ltc6803_CellVoltCnvt(uint8_t convertMode, uint8_t channel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动convertModem模式下电池电压转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t Ltc6803_ReadAllCellVolt(Ltc6803_Parameter *Dev)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取出所有电芯电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16_t Ltc6803_CellVoltCal(int16_t VoltRaw)</t>
+  </si>
+  <si>
+    <t>将AD值转换成电压值，单位是mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Ltc6803_TempCnvt(uint8_t channel)</t>
+  </si>
+  <si>
+    <t>启动温度转换和轮训状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t Ltc6803_ReadTempRegGroup(uint8_t *data)</t>
+  </si>
+  <si>
+    <t>读取温度寄存器组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t Ltc6803_ReadAllTemp(Ltc6803_Parameter *dev)</t>
+  </si>
+  <si>
+    <t>读取全部温度，放入dev中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t Ltc6803_ReadRef(Ltc6803_Parameter *dev)</t>
+  </si>
+  <si>
+    <t>读取VREF值（mv）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t Ltc6803_ReadFlagRegister(Ltc6803_Parameter *dev)</t>
+  </si>
+  <si>
+    <t>读取标志寄存器组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detect.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DetectPackOverCurrent(void)</t>
+  </si>
+  <si>
+    <t>电池包过流检测（包括放电过流和充电过流）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DetectMaxMinCellTemp(void)</t>
+  </si>
+  <si>
+    <t>该函数检测最大最小单体温度值，并获取平均温度和最大最小温度位置</t>
+  </si>
+  <si>
+    <t>void DetectCellsOverTemp(void)</t>
+  </si>
+  <si>
+    <t>检测温度过高</t>
+  </si>
+  <si>
+    <t>void DetectCellsUnderTemp(void)</t>
+  </si>
+  <si>
+    <t>检测温度是否过低</t>
+  </si>
+  <si>
+    <t>void DetectCellTempDlt(void)</t>
+  </si>
+  <si>
+    <t>void DetectCellsOverVolt(void)</t>
+  </si>
+  <si>
+    <t>检测单体电池过压</t>
+  </si>
+  <si>
+    <t>检测温度差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DetectCellsUnderVolt(void)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测单体电池欠压</t>
+  </si>
+  <si>
+    <t>void DetectCellsVoltImba(void)</t>
+  </si>
+  <si>
+    <t>检测单体电压不一致性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DetectPackOv(void)</t>
+  </si>
+  <si>
+    <t>电池包的过压检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DetectPackUv(void)</t>
+  </si>
+  <si>
+    <t>电池包的欠压检测</t>
+  </si>
+  <si>
+    <t>uint8_t DetectPackDischargeFinish(void)</t>
+  </si>
+  <si>
+    <t>检测电池包电压是否达到放电截止电压
+1:无法继续放电 0:可以继续放电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t DetectPackChargeFinish(void)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测电池包是否达到充电截止电压 1:充电完成，0:未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DetectMaxMinAvgCellVolt(void)</t>
+  </si>
+  <si>
+    <t>获取电芯最大最小电压值，电芯平均电压值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeIN  充电器充电检测引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +893,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +984,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -810,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,6 +1089,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,25 +1395,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.75" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="62.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27">
       <c r="B1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1223,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1">
@@ -1234,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1245,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1256,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1267,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1278,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1286,10 +1487,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1300,13 +1501,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="14"/>
       <c r="C10" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1326,7 +1527,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1337,7 +1538,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1348,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1359,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1403,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1443,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1451,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1518,7 +1719,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1526,34 +1727,34 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1561,15 +1762,15 @@
     </row>
     <row r="43" spans="1:3" ht="27">
       <c r="B43" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
@@ -1577,343 +1778,569 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="133.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
         <v>130</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>131</v>
-      </c>
-      <c r="C67" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="C69" s="23" t="s">
         <v>134</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="23"/>
       <c r="B70" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>136</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="23"/>
       <c r="B71" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>138</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="23"/>
       <c r="B72" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>140</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="23"/>
       <c r="B73" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>142</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="C78" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="24"/>
       <c r="B79" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="24"/>
       <c r="B80" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>153</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="C82" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="26"/>
       <c r="B83" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="26"/>
       <c r="B84" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>161</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="26"/>
       <c r="B85" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="26"/>
       <c r="B86" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="C88" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="27"/>
       <c r="B89" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C89" s="27" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="28" t="s">
         <v>171</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="28"/>
+      <c r="B92" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="28"/>
+      <c r="B103" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="B110" t="s">
+        <v>208</v>
+      </c>
+      <c r="C110" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="27">
+      <c r="B115" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/ZTR引脚定义.xlsx
+++ b/ZTR引脚定义.xlsx
@@ -219,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KEYRUN 钥匙开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BusRelease     暂时不用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,7 +841,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChargeIN  充电器充电检测引脚</t>
+    <t>ChargeIN  充电器充电检测引脚 0-充电器接入 1-充电器未接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYRUN 钥匙开关  0-keyrun接通 1-keyrun未接通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1397,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1410,10 +1410,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27">
       <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1">
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1457,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1468,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1487,10 +1487,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1501,13 +1501,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="14"/>
       <c r="C10" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>48</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>49</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1727,34 +1727,34 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1762,15 +1762,15 @@
     </row>
     <row r="43" spans="1:3" ht="27">
       <c r="B43" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
@@ -1778,569 +1778,569 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="133.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
         <v>129</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>130</v>
-      </c>
-      <c r="C67" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="C69" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="23"/>
       <c r="B70" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="23"/>
       <c r="B71" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>137</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="23"/>
       <c r="B72" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>139</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="23"/>
       <c r="B73" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="C78" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="24"/>
       <c r="B79" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="24"/>
       <c r="B80" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>152</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="C82" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="26"/>
       <c r="B83" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="26"/>
       <c r="B84" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="26"/>
       <c r="B85" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="26"/>
       <c r="B86" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="26" t="s">
         <v>164</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="C88" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="27"/>
       <c r="B89" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="27" t="s">
         <v>169</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="28"/>
       <c r="B92" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="28"/>
       <c r="B93" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="28"/>
       <c r="B94" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="28"/>
       <c r="B95" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>179</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="28"/>
       <c r="B96" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>182</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="28"/>
       <c r="B97" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="28" t="s">
         <v>184</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="28"/>
       <c r="B98" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="28"/>
       <c r="B99" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>188</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="28"/>
       <c r="B100" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>190</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="28"/>
       <c r="B101" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="28" t="s">
         <v>192</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="28"/>
       <c r="B102" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="28" t="s">
         <v>194</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="28"/>
       <c r="B103" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="28" t="s">
         <v>196</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>197</v>
+      </c>
+      <c r="B105" t="s">
         <v>198</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>199</v>
-      </c>
-      <c r="C105" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" t="s">
         <v>201</v>
-      </c>
-      <c r="C106" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" t="s">
         <v>203</v>
-      </c>
-      <c r="C107" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" t="s">
         <v>205</v>
-      </c>
-      <c r="C108" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="B109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="B110" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" t="s">
         <v>208</v>
-      </c>
-      <c r="C110" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" t="s">
+        <v>210</v>
+      </c>
+      <c r="C111" t="s">
         <v>211</v>
-      </c>
-      <c r="C111" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" t="s">
         <v>213</v>
-      </c>
-      <c r="C112" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" t="s">
         <v>215</v>
-      </c>
-      <c r="C113" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" t="s">
+        <v>216</v>
+      </c>
+      <c r="C114" t="s">
         <v>217</v>
-      </c>
-      <c r="C114" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="27">
       <c r="B115" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="29" t="s">
         <v>219</v>
-      </c>
-      <c r="C115" s="29" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" t="s">
         <v>221</v>
-      </c>
-      <c r="C116" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
+        <v>222</v>
+      </c>
+      <c r="C117" t="s">
         <v>223</v>
-      </c>
-      <c r="C117" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/ZTR引脚定义.xlsx
+++ b/ZTR引脚定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
   <si>
     <t>引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,6 +846,100 @@
   </si>
   <si>
     <t>KEYRUN 钥匙开关  0-keyrun接通 1-keyrun未接通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selftest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t SystemSelftest(void)</t>
+  </si>
+  <si>
+    <t>系统上电自检</t>
+  </si>
+  <si>
+    <t>void Ltc6803_Selftest(void)</t>
+  </si>
+  <si>
+    <t>void Ltc6803_OpenWireTest(void)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ltc6803芯片ADC自检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltc6803芯片检测线开路检查</t>
+  </si>
+  <si>
+    <t>void CellVoltSelftest(void)</t>
+  </si>
+  <si>
+    <t>电芯电压自检</t>
+  </si>
+  <si>
+    <t>void CellTempSelftest(void)</t>
+  </si>
+  <si>
+    <t>上电自检单体温度</t>
+  </si>
+  <si>
+    <t>void AmbTempSelftest(void)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上电自检电路板温度</t>
+  </si>
+  <si>
+    <t>soc.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Soc_Init(void)</t>
+  </si>
+  <si>
+    <t>参数g_BatteryParameter中SOC相关的初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Soc_PowerOnAdjust(void)</t>
+  </si>
+  <si>
+    <t>SOC上电校准，该函数在系统上电的时候调用，根据单体电压值通过查
+表确定pack的当前SOC，系统在整个运行过程中以此为基础进行电流积
+分获得实时的SOC值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void Soc_Update (void)</t>
+  </si>
+  <si>
+    <t>更新电池包SOC数值</t>
+  </si>
+  <si>
+    <t>void Soc_AhAcc(void)</t>
+  </si>
+  <si>
+    <t>安时积分累加，该函数在2.0ms定时器中调用</t>
+  </si>
+  <si>
+    <t>void Soc_StoreSoc(void)</t>
+  </si>
+  <si>
+    <t>存储系统当前SOC相关参数到EEPROM中,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16_t Soc_ReadAh(void)</t>
+  </si>
+  <si>
+    <t>int32_t Soc_ReadAcc(void)</t>
+  </si>
+  <si>
+    <t>从EEPROM中读取Soc.Accumulator值</t>
+  </si>
+  <si>
+    <t>从EEPROM中读取SOC值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,6 +1188,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1395,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2237,110 +2334,237 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="A105" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="B106" t="s">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="B107" t="s">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="B108" t="s">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="B109" t="s">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="B110" t="s">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="B111" t="s">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="B112" t="s">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
-      <c r="B113" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
-      <c r="B114" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="27">
-      <c r="B115" t="s">
+    <row r="115" spans="1:3" ht="27">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C115" s="29" t="s">
+      <c r="C115" s="30" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
-      <c r="B116" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
-      <c r="B117" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="40.5">
+      <c r="B127" t="s">
+        <v>242</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="B128" t="s">
+        <v>244</v>
+      </c>
+      <c r="C128" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" t="s">
+        <v>251</v>
+      </c>
+      <c r="C132" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/ZTR引脚定义.xlsx
+++ b/ZTR引脚定义.xlsx
@@ -45,9 +45,6 @@
     <t>A2</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
@@ -940,6 +937,10 @@
   </si>
   <si>
     <t>从EEPROM中读取SOC值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1495,7 +1496,7 @@
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1507,10 +1508,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27">
       <c r="B1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1521,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1">
@@ -1532,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1543,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1551,138 +1552,138 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="14"/>
       <c r="C10" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1">
       <c r="A12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1690,66 +1691,66 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1757,66 +1758,66 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1824,34 +1825,34 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1859,15 +1860,15 @@
     </row>
     <row r="43" spans="1:3" ht="27">
       <c r="B43" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
@@ -1875,696 +1876,696 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="133.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
         <v>128</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>129</v>
-      </c>
-      <c r="C67" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="C69" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="23"/>
       <c r="B70" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>134</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="23"/>
       <c r="B71" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>136</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="23"/>
       <c r="B72" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>138</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="23"/>
       <c r="B73" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>140</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>145</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="C78" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="24"/>
       <c r="B79" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="24"/>
       <c r="B80" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="C82" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="26"/>
       <c r="B83" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="26"/>
       <c r="B84" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="26"/>
       <c r="B85" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>161</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="26"/>
       <c r="B86" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="C88" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="27"/>
       <c r="B89" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="28"/>
       <c r="B92" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="28"/>
       <c r="B93" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>175</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="28"/>
       <c r="B94" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="28"/>
       <c r="B95" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>178</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="28"/>
       <c r="B96" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>181</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="28"/>
       <c r="B97" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="28"/>
       <c r="B98" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="28"/>
       <c r="B99" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="28"/>
       <c r="B100" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>189</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="28"/>
       <c r="B101" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="28" t="s">
         <v>191</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="28"/>
       <c r="B102" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="28" t="s">
         <v>193</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="28"/>
       <c r="B103" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="28" t="s">
         <v>195</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="27">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C115" s="30" t="s">
         <v>218</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8"/>
       <c r="B120" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8"/>
       <c r="B121" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8"/>
       <c r="B122" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" t="s">
         <v>239</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="40.5">
       <c r="B127" t="s">
+        <v>241</v>
+      </c>
+      <c r="C127" s="29" t="s">
         <v>242</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" t="s">
         <v>244</v>
-      </c>
-      <c r="C128" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" t="s">
         <v>246</v>
-      </c>
-      <c r="C129" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" t="s">
         <v>248</v>
-      </c>
-      <c r="C130" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C131" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" t="s">
         <v>251</v>
-      </c>
-      <c r="C132" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/ZTR引脚定义.xlsx
+++ b/ZTR引脚定义.xlsx
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -941,6 +937,10 @@
   </si>
   <si>
     <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault_CLR 错误信息清除引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1508,10 +1508,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27">
       <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1">
@@ -1533,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1541,149 +1541,149 @@
         <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="14"/>
       <c r="C10" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1">
       <c r="A12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1691,66 +1691,66 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1758,66 +1758,66 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1825,34 +1825,34 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1860,15 +1860,15 @@
     </row>
     <row r="43" spans="1:3" ht="27">
       <c r="B43" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
@@ -1876,696 +1876,696 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="133.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
         <v>127</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>128</v>
-      </c>
-      <c r="C67" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="C69" s="23" t="s">
         <v>131</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="23"/>
       <c r="B70" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="23"/>
       <c r="B71" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="23"/>
       <c r="B72" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>137</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="23"/>
       <c r="B73" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>139</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="C78" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="24"/>
       <c r="B79" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="24"/>
       <c r="B80" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="C82" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="26"/>
       <c r="B83" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="26"/>
       <c r="B84" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="26"/>
       <c r="B85" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="26"/>
       <c r="B86" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="C88" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="27"/>
       <c r="B89" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="27" t="s">
         <v>167</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>169</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="28"/>
       <c r="B92" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>172</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="28"/>
       <c r="B93" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="28"/>
       <c r="B94" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="28"/>
       <c r="B95" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>177</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="28"/>
       <c r="B96" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>180</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="28"/>
       <c r="B97" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" s="28" t="s">
         <v>182</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="28"/>
       <c r="B98" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="28" t="s">
         <v>184</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="28"/>
       <c r="B99" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="28"/>
       <c r="B100" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>188</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="28"/>
       <c r="B101" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="28" t="s">
         <v>190</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="28"/>
       <c r="B102" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" s="28" t="s">
         <v>192</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="28"/>
       <c r="B103" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" s="28" t="s">
         <v>194</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="27">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="30" t="s">
         <v>217</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8"/>
       <c r="B120" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8"/>
       <c r="B121" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8"/>
       <c r="B122" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" t="s">
         <v>238</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="40.5">
       <c r="B127" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" s="29" t="s">
         <v>241</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" t="s">
+        <v>242</v>
+      </c>
+      <c r="C128" t="s">
         <v>243</v>
-      </c>
-      <c r="C128" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" t="s">
         <v>245</v>
-      </c>
-      <c r="C129" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
+        <v>246</v>
+      </c>
+      <c r="C130" t="s">
         <v>247</v>
-      </c>
-      <c r="C130" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C131" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" t="s">
         <v>250</v>
-      </c>
-      <c r="C132" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/ZTR引脚定义.xlsx
+++ b/ZTR引脚定义.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -439,14 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OUTPUT3  控制LED（充电或者放电闪烁）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTPUT4    控制LED（充电或者放电闪烁）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>void Led_Init(void)</t>
   </si>
   <si>
@@ -941,13 +933,21 @@
   </si>
   <si>
     <t>Fault_CLR 错误信息清除引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTPUT3  控制LED（充电闪烁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTPUT4    控制LED（运行常亮）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1205,11 +1205,16 @@
       <color rgb="FF1364AD"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1283,6 +1288,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1317,6 +1323,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1492,11 +1499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1541,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>66</v>
@@ -1560,7 +1567,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>10</v>
@@ -1585,7 +1592,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>69</v>
@@ -1702,7 +1709,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1793,7 +1800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1817,7 +1824,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1991,581 +1998,581 @@
         <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
         <v>126</v>
-      </c>
-      <c r="B67" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>129</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="23"/>
       <c r="B70" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="23"/>
       <c r="B71" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="23"/>
       <c r="B72" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="23"/>
       <c r="B73" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>145</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="24"/>
       <c r="B79" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="24"/>
       <c r="B80" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="26"/>
       <c r="B83" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="26"/>
       <c r="B84" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="26"/>
       <c r="B85" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="26"/>
       <c r="B86" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="27" t="s">
         <v>163</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="27"/>
       <c r="B89" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B91" s="28" t="s">
-        <v>170</v>
-      </c>
       <c r="C91" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="28"/>
       <c r="B92" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="28"/>
       <c r="B93" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="28"/>
       <c r="B94" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="28"/>
       <c r="B95" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="28"/>
       <c r="B96" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="28"/>
       <c r="B97" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="28"/>
       <c r="B98" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="28"/>
       <c r="B99" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="28"/>
       <c r="B100" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="28"/>
       <c r="B101" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="28"/>
       <c r="B102" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="28"/>
       <c r="B103" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="27">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8"/>
       <c r="B120" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8"/>
       <c r="B121" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8"/>
       <c r="B122" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" t="s">
+        <v>236</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="B126" t="s">
-        <v>238</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="40.5">
       <c r="B127" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +2583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2590,7 +2597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ZTR引脚定义.xlsx
+++ b/ZTR引脚定义.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Heater Control 控制加温装置启停端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,11 +939,15 @@
     <t>OUTPUT4    控制LED（运行常亮）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>故障信息指示灯（红）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1288,7 +1288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1323,7 +1322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1499,11 +1497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1515,10 +1513,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27">
       <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1529,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1">
@@ -1540,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1548,10 +1546,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1562,18 +1560,18 @@
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1584,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1592,10 +1590,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1603,94 +1601,94 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="14"/>
       <c r="C10" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1698,66 +1696,66 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1765,66 +1763,66 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1832,34 +1830,34 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1867,15 +1865,15 @@
     </row>
     <row r="43" spans="1:3" ht="27">
       <c r="B43" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
@@ -1883,696 +1881,696 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="133.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
         <v>124</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>125</v>
-      </c>
-      <c r="C67" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="C69" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="23"/>
       <c r="B70" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="23"/>
       <c r="B71" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="23"/>
       <c r="B72" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>134</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="23"/>
       <c r="B73" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>136</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="C78" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="24"/>
       <c r="B79" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="24"/>
       <c r="B80" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="C82" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="26"/>
       <c r="B83" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="26"/>
       <c r="B84" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="26"/>
       <c r="B85" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="26"/>
       <c r="B86" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="C88" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="27"/>
       <c r="B89" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>166</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="28"/>
       <c r="B92" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>169</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="28"/>
       <c r="B93" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="28"/>
       <c r="B94" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="28"/>
       <c r="B95" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="28"/>
       <c r="B96" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>177</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="28"/>
       <c r="B97" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="28" t="s">
         <v>179</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="28"/>
       <c r="B98" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="28" t="s">
         <v>181</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="28"/>
       <c r="B99" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="28"/>
       <c r="B100" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="28"/>
       <c r="B101" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="28"/>
       <c r="B102" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="28" t="s">
         <v>189</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="28"/>
       <c r="B103" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="28" t="s">
         <v>191</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="27">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="30" t="s">
         <v>214</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8"/>
       <c r="B120" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8"/>
       <c r="B121" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8"/>
       <c r="B122" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" t="s">
         <v>235</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="40.5">
       <c r="B127" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" s="29" t="s">
         <v>238</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" t="s">
+        <v>239</v>
+      </c>
+      <c r="C128" t="s">
         <v>240</v>
-      </c>
-      <c r="C128" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" t="s">
         <v>242</v>
-      </c>
-      <c r="C129" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" t="s">
         <v>244</v>
-      </c>
-      <c r="C130" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" t="s">
         <v>247</v>
-      </c>
-      <c r="C132" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2597,7 +2595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ZTR引脚定义.xlsx
+++ b/ZTR引脚定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="253">
   <si>
     <t>引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,14 +192,6 @@
     <t>D7</t>
   </si>
   <si>
-    <t>TH1EN   热敏电阻1使能端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH2EN   热敏电阻2使能端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MCUcoderOUT     暂时不用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,14 +344,6 @@
   </si>
   <si>
     <t>上电校准电流传感器零点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IHIGH AN6 电流传感器的输入模拟量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ILOW  AN5 电流传感器的输入模拟量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -941,6 +925,18 @@
   </si>
   <si>
     <t>故障信息指示灯（红）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接外部晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IHIGH AN5 电流传感器的输入模拟量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILOW AN6 电流传感器的输入模拟量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1500,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1513,10 +1509,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27">
       <c r="B1" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1527,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1">
@@ -1538,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1546,10 +1542,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1560,18 +1556,18 @@
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1582,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1590,10 +1586,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1601,16 +1597,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="14"/>
       <c r="C10" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1630,7 +1626,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1641,7 +1637,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1652,7 +1648,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1663,7 +1659,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1707,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1747,7 +1743,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1755,7 +1751,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1765,16 +1761,16 @@
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>49</v>
+      <c r="B29" s="13" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>50</v>
+      <c r="B30" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1782,7 +1778,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1790,7 +1786,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1798,7 +1794,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1806,7 +1802,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1814,7 +1810,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1822,7 +1818,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1830,34 +1826,34 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1865,15 +1861,15 @@
     </row>
     <row r="43" spans="1:3" ht="27">
       <c r="B43" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
@@ -1881,696 +1877,696 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="133.5" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="27">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="23"/>
       <c r="B70" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="23"/>
       <c r="B71" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="23"/>
       <c r="B72" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="23"/>
       <c r="B73" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="24"/>
       <c r="B79" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="24"/>
       <c r="B80" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="26"/>
       <c r="B83" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="26"/>
       <c r="B84" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="26"/>
       <c r="B85" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="26"/>
       <c r="B86" s="26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="27"/>
       <c r="B89" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="28"/>
       <c r="B92" s="28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="28"/>
       <c r="B93" s="28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="28"/>
       <c r="B94" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="28"/>
       <c r="B95" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="28"/>
       <c r="B96" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="28"/>
       <c r="B97" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="28"/>
       <c r="B98" s="28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="28"/>
       <c r="B99" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="28"/>
       <c r="B100" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="28"/>
       <c r="B101" s="28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="28"/>
       <c r="B102" s="28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="28"/>
       <c r="B103" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="27">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8"/>
       <c r="B120" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8"/>
       <c r="B121" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8"/>
       <c r="B122" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B126" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="40.5">
       <c r="B127" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="B128" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C128" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C129" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C130" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C131" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C132" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
